--- a/KiCAD/Gerber and BOM/Drumkit_BOM.xlsx
+++ b/KiCAD/Gerber and BOM/Drumkit_BOM.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Kayne\Documents\KiCAD\Pluralsight\Pluralsight_Drumkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Kayne\Documents\GitHub\Arduino-MIDI-Solenoid-Drumkit\KiCAD\Gerber and BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1C0153CC-EA76-4E23-8DB6-A7D3DD67C278}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4DF15-3D04-4D90-B363-227F9E5FA39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pluralsight_Drumkit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Qty</t>
   </si>
@@ -158,12 +166,27 @@
   </si>
   <si>
     <t>732-2670-ND</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1040,12 +1063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1106,7 @@
       </c>
       <c r="I1" s="4">
         <f>SUM(F2:F53)</f>
-        <v>11.87</v>
+        <v>13.969999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1380,103 +1403,133 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.1</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1508,22 +1561,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://www.digikey.com/short/pq31n1"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://www.digikey.com/short/pch9zj"/>
-    <hyperlink ref="D13" r:id="rId3" display="https://www.digikey.com/short/pch9pf"/>
-    <hyperlink ref="D15" r:id="rId4" display="https://www.digikey.com/short/pch9mn"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://www.digikey.com/short/ppbfp4"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://www.digikey.com/short/ppbfp0"/>
-    <hyperlink ref="D3" r:id="rId7" display="https://www.digikey.com/short/pch9p7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://www.digikey.com/short/pq31n1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://www.digikey.com/short/pch9zj" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D13" r:id="rId3" display="https://www.digikey.com/short/pch9pf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D15" r:id="rId4" display="https://www.digikey.com/short/pch9mn" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://www.digikey.com/short/ppbfp4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://www.digikey.com/short/ppbfp0" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId7" display="https://www.digikey.com/short/pch9p7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{DED03FFA-2972-4582-9F32-CBE0C7DB5BF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/KiCAD/Gerber and BOM/Drumkit_BOM.xlsx
+++ b/KiCAD/Gerber and BOM/Drumkit_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Kayne\Documents\GitHub\Arduino-MIDI-Solenoid-Drumkit\KiCAD\Gerber and BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Kayne\Documents\KiCAD\Pluralsight\Pluralsight_Drumkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4DF15-3D04-4D90-B363-227F9E5FA39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A52BFF-D70F-4C44-958B-5682F8AAA2E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Qty</t>
   </si>
@@ -172,15 +172,6 @@
   </si>
   <si>
     <t>S9337-ND</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>JLCPCB</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1097,7 @@
       </c>
       <c r="I1" s="4">
         <f>SUM(F2:F53)</f>
-        <v>13.969999999999999</v>
+        <v>11.969999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1394,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1416,7 +1407,7 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>0.1</v>
       </c>
       <c r="F16" s="5">
@@ -1424,112 +1415,97 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1573,9 +1549,9 @@
     <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{DED03FFA-2972-4582-9F32-CBE0C7DB5BF5}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{EDEFDD02-79F1-4B79-AEB1-9E9BA37B898D}"/>
+    <hyperlink ref="D4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
